--- a/results/multilabel_native/41468/automl.xlsx
+++ b/results/multilabel_native/41468/automl.xlsx
@@ -483,11 +483,31 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.421 (0.383 ± 0.019)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:01:54 (00:02:06 ± 00:00:06)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,17 +517,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.639 (0.567 Â± 0.037)</t>
+          <t>0.639 (0.567 ± 0.037)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01:48 (00:02:20 Â± 00:00:32)</t>
+          <t>00:01:48 (00:02:20 ± 00:00:32)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +561,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.658 (0.625 Â± 0.020)</t>
+          <t>0.658 (0.625 ± 0.020)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:05:01 Â± 00:00:01)</t>
+          <t>00:04:57 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -585,17 +605,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.538 (0.489 Â± 0.027)</t>
+          <t>0.538 (0.489 ± 0.027)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:56 Â± 00:00:34)</t>
+          <t>00:04:56 (00:05:56 ± 00:00:34)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
